--- a/bank statement generator/bank_statements/statement_115.xlsx
+++ b/bank statement generator/bank_statements/statement_115.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 30.04.2025</t>
+          <t>KONTOSTAND AM 10.02.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,132 +759,132 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>04.05.</t>
+          <t>11.02.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>05.05.</t>
+          <t>12.02.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>AMAZON.DE MKTPLC EU MSWTXT</t>
+          <t>KARTENZAHLUNG ARAL TANKSTELLE</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>64,46-</t>
+          <t>54,52-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>06.05.</t>
+          <t>14.02.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>07.05.</t>
+          <t>15.02.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-88063660</t>
+          <t>RECHNUNG VODAFONE GMBH 96572705</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>52,75-</t>
+          <t>37,52-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>08.05.</t>
+          <t>17.02.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>09.05.</t>
+          <t>18.02.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 37410659</t>
+          <t>KARTENZAHLUNG JET TANKSTELLE</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>85,77-</t>
+          <t>63,47-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>10.05.</t>
+          <t>19.02.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>11.05.</t>
+          <t>20.02.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./10.05 REWE RO</t>
+          <t>PAYPAL KHHNCC</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>141,91-</t>
+          <t>89,14-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>13.05.</t>
+          <t>23.02.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>14.05.</t>
+          <t>24.02.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 11380742</t>
+          <t>PAYPAL BBPCLS</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>39,86-</t>
+          <t>8,16-</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>16.05.</t>
+          <t>24.02.</t>
         </is>
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>17.05.</t>
+          <t>25.02.</t>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>BEITRAG Allianz SE K-59919972</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
         <is>
-          <t>26,56-</t>
+          <t>52,99-</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 18.05.2025</t>
+          <t>KONTOSTAND AM 27.02.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>411,31-</t>
+          <t>305,80-</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 23.05.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 05.03.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
